--- a/CEI-Cronograma del Proyecto - INSI.xlsx
+++ b/CEI-Cronograma del Proyecto - INSI.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Control IGV'!$A$2:$A$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Control IGV'!$B$2:$B$50</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="203">
   <si>
     <t>PROYECTO</t>
   </si>
@@ -758,9 +758,6 @@
     </r>
   </si>
   <si>
-    <t>M_SNADE007 [Entregables: 160, 166, 167, 169, 177]</t>
-  </si>
-  <si>
     <t>La tarea ha sido impactada por los cambios a los entregables pre-requisito.</t>
   </si>
   <si>
@@ -916,9 +913,6 @@
     <t>Elmo Taboada</t>
   </si>
   <si>
-    <t>1.6.2. Integración del control de inconsistencias del RCVE y la propuesta de la Dec. IGV Renta Mensual (Integración del control de inconsistencias y la propuesta de la Dec. IGV Renta Mensual)</t>
-  </si>
-  <si>
     <t>Patricia Silva/Marcela Vargas/Elvita Truel</t>
   </si>
   <si>
@@ -1249,9 +1243,6 @@
     <t>En curso.</t>
   </si>
   <si>
-    <t>Esta sociado a la emisión de la multa. Lo mismo que el 1.5.2</t>
-  </si>
-  <si>
     <t>No existe definición. Se informará a Y.Lecca del riesgo de no cumplir con lo requerido por el negocio.</t>
   </si>
   <si>
@@ -1269,9 +1260,6 @@
   </si>
   <si>
     <t>La fecha fin de implantación(01/07/2018) no estan acorde a lo solicitado por el normativo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDST tiene cronograma planificado, pero necesita componente desarrollado por DDSANA (servicio), el cual no se ha planificado. </t>
   </si>
   <si>
     <t>Cuenta con MPN, pero no se ha planificado el desarrollo del componente analitico, necesario para DDST (1.4.3)</t>
@@ -1335,12 +1323,88 @@
   <si>
     <t>Verificar costeo de las variables en función a la fecha requerida</t>
   </si>
+  <si>
+    <t>ppNN es un parto
+algunos estan en calidad y 
+agendar reunión con javier y elsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complementar el grafico completo de la Arquitectura. </t>
+  </si>
+  <si>
+    <t>Cuando entregarán en padro y fecha de carga</t>
+  </si>
+  <si>
+    <t>En primera etapa es solo las de IGV, pero el acuerdo es que entren todas las variables.</t>
+  </si>
+  <si>
+    <t>Entregable del proyecto PGIR. Entregable diferente del de Albaracin. Ver porque no hay dos tableros. José André debe formularlo. Hay que conversar con Palmer.</t>
+  </si>
+  <si>
+    <t>marcela dice que si microsoft no va a llegar que lo hagamos nosotros a la interna.
+Alerta que se emiten al momento de presentar un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDST tiene cronograma planificado, pero necesita componente desarrollado por DDSANA (servicio analitico a mas tardar el 06.06), el cual no se ha planificado. </t>
+  </si>
+  <si>
+    <t>Ya se envio cronograma. Se necesita que le de lo que necesita William.</t>
+  </si>
+  <si>
+    <t>Debe coordinar con victor y elexei para que hagan el cronograma. Servicio orientado para los compradores. La factura fue observada por OSCE, este jamaz construira un servicio para nosotros. Hay que hablar con el negocio y modelar bien.</t>
+  </si>
+  <si>
+    <t>La fecha no se cambiará. El alcance ha cambiado. Los reportes y las consultas son despues de 15.08</t>
+  </si>
+  <si>
+    <t>se va a pedir 2 meses mas de ampliación. Bravo.</t>
+  </si>
+  <si>
+    <t>El F2 Ar1 lo deben revisar tambien con el operativo. Se debe informar el motivo de rechazo por el usuario y calidad. 
+Hay que hacer una solicitud de cambio y el normativo tiene que pedirlo.</t>
+  </si>
+  <si>
+    <t>M_SNADE486, 1 ,23 y 6 Infracción PRICO y MEPECO</t>
+  </si>
+  <si>
+    <t>Miercoles 23/05/2018 se cerrara</t>
+  </si>
+  <si>
+    <t>Como hito del proyecto. Se sigue manteniendo el hito el 24.08, pero se podra sacare a fin de Julio.</t>
+  </si>
+  <si>
+    <t>La aplicación de SINE y SIEV para GEMA. Cartas inductivas no tendran RS porque solo es informativ. Las equelas si tendran RS porque tendran expediente.</t>
+  </si>
+  <si>
+    <t>La notificación será manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es un scoring para determinar el perfil. Con orellana. Perfil es para CCV no para GEMA pero </t>
+  </si>
+  <si>
+    <t>sesacaraá el 30.06 fase 1</t>
+  </si>
+  <si>
+    <t>Fase 2 del 1.9.1. Elvira quiere ver la demo de la aplicación y en base a ello indicará</t>
+  </si>
+  <si>
+    <t>P_SNADE007 [Entregables: 160, 166, 167, 169, 177]</t>
+  </si>
+  <si>
+    <t>Esta asociado a la emisión de la multa. Lo mismo que el 1.5.2.Ya esta desarrollado, no se tiene que hacer nada. Ya esta implementado (debe aclrarse que esta adociado a la identificación de los omisos)</t>
+  </si>
+  <si>
+    <t>P_SNATI002</t>
+  </si>
+  <si>
+    <t>1.6.2. Integración del control de inconsistencias del RCVE y la propuesta de la Dec. IGV Renta Mensual (Integración del control de inconsistencias y la propuesta de la Dec. IGV Renta Mensual)+B32</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1414,8 +1478,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1503,6 +1574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,7 +1725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1857,6 +1934,63 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1902,51 +2036,8 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4322,2669 +4413,2780 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE964246-1AB6-4734-8FCC-1489081E524D}">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="6" width="65.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.85546875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" customWidth="1"/>
-    <col min="20" max="20" width="36.42578125" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" customWidth="1"/>
-    <col min="23" max="23" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="46.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" customWidth="1"/>
+    <col min="22" max="22" width="36.42578125" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" customWidth="1"/>
+    <col min="25" max="25" width="47.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="C1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="86" t="s">
+      <c r="D1" s="111"/>
+      <c r="E1" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="82"/>
+      <c r="G1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="H1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="95" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="96"/>
-      <c r="L1" s="93" t="s">
+      <c r="M1" s="115"/>
+      <c r="N1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="94"/>
-      <c r="N1" s="84" t="s">
+      <c r="O1" s="113"/>
+      <c r="P1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="85"/>
-      <c r="P1" s="82" t="s">
+      <c r="Q1" s="104"/>
+      <c r="R1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="39" t="s">
+      <c r="S1" s="102"/>
+      <c r="T1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="97" t="s">
+      <c r="U1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="97" t="s">
+      <c r="V1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="97" t="s">
+      <c r="W1" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="97" t="s">
+      <c r="X1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="97" t="s">
+      <c r="Y1" s="98" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="106"/>
+      <c r="C2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="104"/>
       <c r="E2" s="87"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="87"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="K2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="L2" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="M2" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="N2" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="O2" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="P2" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="81" t="s">
+      <c r="Q2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="R2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="T3" s="40"/>
       <c r="U3" s="40"/>
       <c r="V3" s="40"/>
-      <c r="W3" s="5"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="2:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="85"/>
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="L4" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="M4" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="N4" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="74">
+      <c r="O4" s="74">
         <v>43220</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27">
         <v>43220</v>
       </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21">
+      <c r="R4" s="21"/>
+      <c r="S4" s="21">
         <v>43220</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42">
+      <c r="T4" s="41"/>
+      <c r="U4" s="42">
         <v>1</v>
       </c>
-      <c r="T4" s="40"/>
-      <c r="U4" s="43" t="s">
+      <c r="V4" s="40"/>
+      <c r="W4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="40" t="s">
+      <c r="X4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="5"/>
+      <c r="Y4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="102" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="L5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="M5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="N5" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="74">
+      <c r="O5" s="74">
         <v>43270</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27">
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27">
         <v>43270</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21">
+      <c r="R5" s="21"/>
+      <c r="S5" s="21">
         <v>43270</v>
       </c>
-      <c r="R5" s="40"/>
-      <c r="S5" s="42">
+      <c r="T5" s="40"/>
+      <c r="U5" s="42">
         <v>1</v>
       </c>
-      <c r="T5" s="40"/>
-      <c r="U5" s="43" t="s">
+      <c r="V5" s="40"/>
+      <c r="W5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="40" t="s">
+      <c r="X5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="5"/>
+      <c r="Y5" s="5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="T6" s="40"/>
       <c r="U6" s="40"/>
       <c r="V6" s="40"/>
-      <c r="W6" s="5"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="5"/>
     </row>
-    <row r="7" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="107" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="68">
+      <c r="L7" s="68">
         <v>43213</v>
       </c>
-      <c r="K7" s="68">
+      <c r="M7" s="68">
         <v>43248</v>
       </c>
-      <c r="L7" s="74">
+      <c r="N7" s="74">
         <v>43249</v>
       </c>
-      <c r="M7" s="74">
+      <c r="O7" s="74">
         <v>43279</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27">
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27">
         <v>43281</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21">
+      <c r="R7" s="21"/>
+      <c r="S7" s="21">
         <v>43281</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="42">
+      <c r="T7" s="40"/>
+      <c r="U7" s="42">
         <v>1</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="43" t="s">
+      <c r="V7" s="40"/>
+      <c r="W7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="40" t="s">
+      <c r="X7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="Y7" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="96"/>
+      <c r="F8" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="68">
+      <c r="L8" s="68">
         <v>43213</v>
       </c>
-      <c r="K8" s="68">
+      <c r="M8" s="68">
         <v>43248</v>
       </c>
-      <c r="L8" s="74">
+      <c r="N8" s="74">
         <v>43249</v>
       </c>
-      <c r="M8" s="74">
+      <c r="O8" s="74">
         <v>43279</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27">
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27">
         <v>43281</v>
       </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21">
+      <c r="R8" s="21"/>
+      <c r="S8" s="21">
         <v>43281</v>
       </c>
-      <c r="R8" s="40"/>
-      <c r="S8" s="42">
+      <c r="T8" s="40"/>
+      <c r="U8" s="42">
         <v>1</v>
       </c>
-      <c r="T8" s="40"/>
-      <c r="U8" s="43" t="s">
+      <c r="V8" s="40"/>
+      <c r="W8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V8" s="40" t="s">
+      <c r="X8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="68">
+      <c r="L9" s="68">
         <v>43213</v>
       </c>
-      <c r="K9" s="68">
+      <c r="M9" s="68">
         <v>43248</v>
       </c>
-      <c r="L9" s="74">
+      <c r="N9" s="74">
         <v>43249</v>
       </c>
-      <c r="M9" s="74">
+      <c r="O9" s="74">
         <v>43279</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27">
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27">
         <v>43281</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21">
+      <c r="R9" s="21"/>
+      <c r="S9" s="21">
         <v>43281</v>
       </c>
-      <c r="R9" s="40"/>
-      <c r="S9" s="42">
+      <c r="T9" s="40"/>
+      <c r="U9" s="42">
         <v>1</v>
       </c>
-      <c r="T9" s="40"/>
-      <c r="U9" s="43" t="s">
+      <c r="V9" s="40"/>
+      <c r="W9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="40" t="s">
+      <c r="X9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W9" s="5" t="s">
+      <c r="Y9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="68">
+      <c r="L10" s="68">
         <v>43213</v>
       </c>
-      <c r="K10" s="68">
+      <c r="M10" s="68">
         <v>43248</v>
       </c>
-      <c r="L10" s="74">
+      <c r="N10" s="74">
         <v>43249</v>
       </c>
-      <c r="M10" s="74">
+      <c r="O10" s="74">
         <v>43279</v>
       </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27">
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27">
         <v>43281</v>
       </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21">
+      <c r="R10" s="21"/>
+      <c r="S10" s="21">
         <v>43281</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="T10" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="42">
+      <c r="U10" s="42">
         <v>1</v>
       </c>
-      <c r="T10" s="40"/>
-      <c r="U10" s="43" t="s">
+      <c r="V10" s="40"/>
+      <c r="W10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V10" s="40" t="s">
+      <c r="X10" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="Y10" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="97"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="68">
+      <c r="L11" s="68">
         <v>43213</v>
       </c>
-      <c r="K11" s="68">
+      <c r="M11" s="68">
         <v>43248</v>
       </c>
-      <c r="L11" s="74">
+      <c r="N11" s="74">
         <v>43249</v>
       </c>
-      <c r="M11" s="74">
+      <c r="O11" s="74">
         <v>43279</v>
       </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27">
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27">
         <v>43281</v>
       </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21">
+      <c r="R11" s="21"/>
+      <c r="S11" s="21">
         <v>43281</v>
       </c>
-      <c r="R11" s="40"/>
-      <c r="S11" s="42">
+      <c r="T11" s="40"/>
+      <c r="U11" s="42">
         <v>1</v>
       </c>
-      <c r="T11" s="40"/>
-      <c r="U11" s="43" t="s">
+      <c r="V11" s="40"/>
+      <c r="W11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V11" s="40" t="s">
+      <c r="X11" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="Y11" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>28</v>
       </c>
       <c r="C12" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="56" t="s">
+      <c r="D12" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="H12" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="I12" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="J12" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="K12" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60">
-        <v>43281</v>
-      </c>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="76"/>
       <c r="P12" s="60"/>
       <c r="Q12" s="60">
         <v>43281</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62">
+      <c r="R12" s="60"/>
+      <c r="S12" s="60">
+        <v>43281</v>
+      </c>
+      <c r="T12" s="61"/>
+      <c r="U12" s="62">
         <v>0</v>
       </c>
-      <c r="T12" s="63" t="s">
+      <c r="V12" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61" t="s">
+      <c r="W12" s="61"/>
+      <c r="X12" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="W12" s="59"/>
+      <c r="Y12" s="59"/>
     </row>
-    <row r="13" spans="1:23" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="2:25" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>28</v>
       </c>
       <c r="C13" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="56" t="s">
+      <c r="D13" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="H13" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="I13" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="J13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="K13" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60">
-        <v>43312</v>
-      </c>
+      <c r="L13" s="67"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
       <c r="P13" s="60"/>
       <c r="Q13" s="60">
         <v>43312</v>
       </c>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62">
+      <c r="R13" s="60"/>
+      <c r="S13" s="60">
+        <v>43312</v>
+      </c>
+      <c r="T13" s="61"/>
+      <c r="U13" s="62">
         <v>0</v>
       </c>
-      <c r="T13" s="63" t="s">
+      <c r="V13" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61" t="s">
+      <c r="W13" s="61"/>
+      <c r="X13" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="W13" s="59"/>
+      <c r="Y13" s="59"/>
     </row>
-    <row r="14" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27">
+        <v>43281</v>
+      </c>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21">
+        <v>43281</v>
+      </c>
+      <c r="T14" s="40"/>
+      <c r="U14" s="49">
+        <v>0</v>
+      </c>
+      <c r="V14" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27">
-        <v>43281</v>
-      </c>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21">
-        <v>43281</v>
-      </c>
-      <c r="R14" s="40"/>
-      <c r="S14" s="49">
-        <v>0</v>
-      </c>
-      <c r="T14" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="5"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="5"/>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="56" t="s">
+      <c r="D15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="69">
+      <c r="L15" s="69">
         <v>43252</v>
       </c>
-      <c r="K15" s="68">
+      <c r="M15" s="68">
         <v>43283</v>
       </c>
-      <c r="L15" s="75">
+      <c r="N15" s="75">
         <v>43284</v>
       </c>
-      <c r="M15" s="75">
+      <c r="O15" s="75">
         <v>43318</v>
       </c>
-      <c r="N15" s="27">
+      <c r="P15" s="27">
         <v>43319</v>
       </c>
-      <c r="O15" s="27">
+      <c r="Q15" s="27">
         <v>43319</v>
       </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21">
+      <c r="R15" s="21"/>
+      <c r="S15" s="21">
         <v>43312</v>
       </c>
-      <c r="R15" s="40"/>
-      <c r="S15" s="42">
+      <c r="T15" s="40"/>
+      <c r="U15" s="42">
         <v>1</v>
       </c>
-      <c r="T15" s="41"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40" t="s">
+      <c r="V15" s="41"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="5"/>
+      <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="103" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="7" t="s">
+      <c r="D16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="86"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27">
+      <c r="K16" s="11"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27">
         <v>43312</v>
       </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21">
+      <c r="R16" s="21"/>
+      <c r="S16" s="21">
         <v>43312</v>
       </c>
-      <c r="R16" s="40"/>
-      <c r="S16" s="49">
+      <c r="T16" s="40"/>
+      <c r="U16" s="49">
         <v>0</v>
       </c>
-      <c r="T16" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="U16" s="40"/>
       <c r="V16" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W16" s="5"/>
+      <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="103" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="K17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="21">
+      <c r="L17" s="67"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="21">
         <v>43250</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="S17" s="21">
         <v>43343</v>
       </c>
-      <c r="R17" s="40"/>
-      <c r="S17" s="42">
+      <c r="T17" s="40"/>
+      <c r="U17" s="42">
         <v>0</v>
       </c>
-      <c r="T17" s="40" t="s">
+      <c r="V17" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40" t="s">
+      <c r="W17" s="40"/>
+      <c r="X17" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W17" s="5" t="s">
+      <c r="Y17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24" t="s">
+      <c r="J18" s="8"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="T18" s="40"/>
       <c r="U18" s="40"/>
       <c r="V18" s="40"/>
-      <c r="W18" s="5"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:23" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:25" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="D19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="85"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="J19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="69">
+      <c r="L19" s="69">
         <v>43234</v>
       </c>
-      <c r="K19" s="69">
+      <c r="M19" s="69">
         <v>43235</v>
       </c>
-      <c r="L19" s="77">
+      <c r="N19" s="77">
         <v>43236</v>
       </c>
-      <c r="M19" s="77">
+      <c r="O19" s="77">
         <v>43242</v>
       </c>
-      <c r="N19" s="27">
+      <c r="P19" s="27">
         <v>43243</v>
       </c>
-      <c r="O19" s="27">
+      <c r="Q19" s="27">
         <v>43243</v>
       </c>
-      <c r="P19" s="21">
+      <c r="R19" s="21">
         <v>43243</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="S19" s="21">
         <v>43243</v>
       </c>
-      <c r="R19" s="41"/>
-      <c r="S19" s="42">
+      <c r="T19" s="41"/>
+      <c r="U19" s="42">
         <v>1</v>
       </c>
-      <c r="T19" s="41" t="s">
+      <c r="V19" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="U19" s="43" t="s">
+      <c r="W19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="40" t="s">
+      <c r="X19" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W19" s="5" t="s">
+      <c r="Y19" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="117"/>
+      <c r="B20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="83"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="J20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="K20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="69" t="s">
+      <c r="L20" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="68">
+      <c r="M20" s="68">
         <v>43251</v>
       </c>
-      <c r="L20" s="75">
+      <c r="N20" s="75">
         <v>43255</v>
       </c>
-      <c r="M20" s="75">
+      <c r="O20" s="75">
         <v>43278</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27">
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27">
         <v>43278</v>
       </c>
-      <c r="P20" s="21">
+      <c r="R20" s="21">
         <v>43206</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="S20" s="21">
         <v>43270</v>
       </c>
-      <c r="R20" s="41"/>
-      <c r="S20" s="42">
+      <c r="T20" s="41"/>
+      <c r="U20" s="42">
         <v>1</v>
       </c>
-      <c r="T20" s="40"/>
-      <c r="U20" s="44" t="s">
+      <c r="V20" s="40"/>
+      <c r="W20" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="V20" s="40" t="s">
+      <c r="X20" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="W20" s="5"/>
+      <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="117"/>
+      <c r="B21" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24" t="s">
+      <c r="J21" s="8"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
       <c r="V21" s="40"/>
-      <c r="W21" s="5"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="117"/>
+      <c r="B22" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="K22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="74">
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="74">
         <v>43251</v>
       </c>
-      <c r="N22" s="27">
+      <c r="P22" s="27">
         <v>43206</v>
       </c>
-      <c r="O22" s="27">
+      <c r="Q22" s="27">
         <v>43251</v>
       </c>
-      <c r="P22" s="21">
+      <c r="R22" s="21">
         <v>43206</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="S22" s="21">
         <v>43251</v>
       </c>
-      <c r="R22" s="40"/>
-      <c r="S22" s="42">
+      <c r="T22" s="40"/>
+      <c r="U22" s="42">
         <v>1</v>
       </c>
-      <c r="T22" s="40"/>
-      <c r="U22" s="43" t="s">
+      <c r="V22" s="40"/>
+      <c r="W22" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V22" s="40" t="s">
+      <c r="X22" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="W22" s="5"/>
+      <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="117"/>
+      <c r="B23" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="J23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="K23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="67" t="s">
+      <c r="L23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="67" t="s">
+      <c r="M23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="73" t="s">
+      <c r="N23" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="74">
+      <c r="O23" s="74">
         <v>42886</v>
       </c>
-      <c r="N23" s="27">
+      <c r="P23" s="27">
         <v>43206</v>
       </c>
-      <c r="O23" s="27">
+      <c r="Q23" s="27">
         <v>43281</v>
       </c>
-      <c r="P23" s="21">
+      <c r="R23" s="21">
         <v>43206</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="S23" s="21">
         <v>43281</v>
       </c>
-      <c r="R23" s="41" t="s">
+      <c r="T23" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="S23" s="42">
+      <c r="U23" s="42">
         <v>1</v>
       </c>
-      <c r="T23" s="40"/>
-      <c r="U23" s="43" t="s">
+      <c r="V23" s="40"/>
+      <c r="W23" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V23" s="40" t="s">
+      <c r="X23" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="W23" s="5"/>
+      <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="116"/>
+      <c r="B24" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="65" t="s">
+      <c r="D24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="J24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="K24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="69">
+      <c r="L24" s="69">
         <v>43235</v>
       </c>
-      <c r="K24" s="69">
+      <c r="M24" s="69">
         <v>43252</v>
       </c>
-      <c r="L24" s="77">
+      <c r="N24" s="77">
         <v>43255</v>
       </c>
-      <c r="M24" s="74">
+      <c r="O24" s="74">
         <v>43283</v>
       </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="27">
+      <c r="P24" s="28"/>
+      <c r="Q24" s="27">
         <v>43283</v>
       </c>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="21">
+      <c r="R24" s="25"/>
+      <c r="S24" s="21">
         <v>43281</v>
       </c>
-      <c r="R24" s="41"/>
-      <c r="S24" s="42">
+      <c r="T24" s="41"/>
+      <c r="U24" s="42">
         <v>1</v>
       </c>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40" t="s">
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="W24" s="5"/>
+      <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="117"/>
+      <c r="B25" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="102" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="65" t="s">
+      <c r="D25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="J25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="K25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="71">
+      <c r="L25" s="71">
         <v>43272</v>
       </c>
-      <c r="K25" s="71">
+      <c r="M25" s="71">
         <v>43311</v>
       </c>
-      <c r="L25" s="75">
+      <c r="N25" s="75">
         <v>43312</v>
       </c>
-      <c r="M25" s="75">
+      <c r="O25" s="75">
         <v>43348</v>
       </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="27">
+      <c r="P25" s="28"/>
+      <c r="Q25" s="27">
         <v>43348</v>
       </c>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="21">
+      <c r="R25" s="25"/>
+      <c r="S25" s="21">
         <v>43305</v>
       </c>
-      <c r="R25" s="40"/>
-      <c r="S25" s="42">
+      <c r="T25" s="40"/>
+      <c r="U25" s="42">
         <v>0</v>
       </c>
-      <c r="T25" s="40" t="s">
+      <c r="V25" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40" t="s">
+      <c r="W25" s="40"/>
+      <c r="X25" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="W25" s="5" t="s">
-        <v>151</v>
+      <c r="Y25" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="117"/>
+      <c r="B26" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
+      <c r="D26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="J26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="K26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="42">
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="42">
         <v>0</v>
       </c>
-      <c r="T26" s="40" t="s">
+      <c r="V26" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40" t="s">
+      <c r="W26" s="40"/>
+      <c r="X26" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W26" s="5"/>
+      <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="J27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="K27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="21">
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="21">
         <v>43281</v>
       </c>
-      <c r="R27" s="40" t="s">
+      <c r="T27" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="S27" s="42">
+      <c r="U27" s="42">
         <v>0</v>
       </c>
-      <c r="T27" s="40" t="s">
+      <c r="V27" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40" t="s">
+      <c r="W27" s="40"/>
+      <c r="X27" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W27" s="5"/>
+      <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="102" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
+      <c r="D28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="85"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="J28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="K28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="68">
+      <c r="L28" s="68">
         <v>43213</v>
       </c>
-      <c r="K28" s="68">
+      <c r="M28" s="68">
         <v>43238</v>
       </c>
-      <c r="L28" s="74">
+      <c r="N28" s="74">
         <v>43241</v>
       </c>
-      <c r="M28" s="74">
+      <c r="O28" s="74">
         <v>43281</v>
       </c>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27">
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27">
         <v>43343</v>
       </c>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21">
+      <c r="R28" s="21"/>
+      <c r="S28" s="21">
         <v>43343</v>
       </c>
-      <c r="R28" s="40"/>
-      <c r="S28" s="42">
+      <c r="T28" s="40"/>
+      <c r="U28" s="42">
         <v>1</v>
       </c>
-      <c r="T28" s="40"/>
-      <c r="U28" s="43" t="s">
+      <c r="V28" s="40"/>
+      <c r="W28" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V28" s="40" t="s">
+      <c r="X28" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="W28" s="5"/>
+      <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="117"/>
+      <c r="B29" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="102" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="85"/>
+      <c r="G29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="71">
+        <v>43209</v>
+      </c>
+      <c r="M29" s="71">
+        <v>43292</v>
+      </c>
+      <c r="N29" s="75">
+        <v>43293</v>
+      </c>
+      <c r="O29" s="74">
+        <v>43312</v>
+      </c>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27">
+        <v>43312</v>
+      </c>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21">
+        <v>43312</v>
+      </c>
+      <c r="T29" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="71">
-        <v>43209</v>
-      </c>
-      <c r="K29" s="71">
-        <v>43292</v>
-      </c>
-      <c r="L29" s="75">
-        <v>43293</v>
-      </c>
-      <c r="M29" s="74">
-        <v>43312</v>
-      </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27">
-        <v>43312</v>
-      </c>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21">
-        <v>43312</v>
-      </c>
-      <c r="R29" s="41" t="s">
+      <c r="U29" s="42">
+        <v>1</v>
+      </c>
+      <c r="V29" s="40"/>
+      <c r="W29" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="X29" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y29" s="5"/>
+    </row>
+    <row r="30" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="S29" s="42">
-        <v>1</v>
-      </c>
-      <c r="T29" s="40"/>
-      <c r="U29" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="V29" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="W29" s="5"/>
-    </row>
-    <row r="30" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24" t="s">
+      <c r="J30" s="8"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="T30" s="40"/>
       <c r="U30" s="40"/>
       <c r="V30" s="40"/>
-      <c r="W30" s="5"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:23" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>28</v>
+    <row r="31" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="117"/>
+      <c r="B31" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="106" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="7" t="s">
+      <c r="D31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="48"/>
+      <c r="H31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="I31" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="J31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="K31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="68">
+      <c r="L31" s="68">
         <v>43222</v>
       </c>
-      <c r="K31" s="68">
+      <c r="M31" s="68">
         <v>43281</v>
       </c>
-      <c r="L31" s="74">
+      <c r="N31" s="74">
         <v>43282</v>
       </c>
-      <c r="M31" s="74">
+      <c r="O31" s="74">
         <v>43327</v>
       </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27">
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27">
         <v>43327</v>
       </c>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21">
+      <c r="R31" s="21"/>
+      <c r="S31" s="21">
         <v>43281</v>
       </c>
-      <c r="R31" s="41" t="s">
+      <c r="T31" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="U31" s="42">
+        <v>1</v>
+      </c>
+      <c r="V31" s="40"/>
+      <c r="W31" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="5"/>
+    </row>
+    <row r="32" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="117"/>
+      <c r="B32" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="S31" s="42">
-        <v>1</v>
-      </c>
-      <c r="T31" s="40"/>
-      <c r="U31" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="V31" s="40"/>
-      <c r="W31" s="5"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
+      <c r="D32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="85"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="I32" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="J32" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="68">
+      <c r="L32" s="68">
         <v>43222</v>
       </c>
-      <c r="K32" s="68">
+      <c r="M32" s="68">
         <v>43281</v>
       </c>
-      <c r="L32" s="74">
+      <c r="N32" s="74">
         <v>43282</v>
       </c>
-      <c r="M32" s="74">
+      <c r="O32" s="74">
         <v>43327</v>
       </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27">
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27">
         <v>43327</v>
       </c>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21">
+      <c r="R32" s="21"/>
+      <c r="S32" s="21">
         <v>43327</v>
       </c>
-      <c r="R32" s="41"/>
-      <c r="S32" s="42">
+      <c r="T32" s="41"/>
+      <c r="U32" s="42">
         <v>1</v>
       </c>
-      <c r="T32" s="40"/>
-      <c r="U32" s="43" t="s">
+      <c r="V32" s="40"/>
+      <c r="W32" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V32" s="40"/>
-      <c r="W32" s="5"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>21</v>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="T33" s="40"/>
       <c r="U33" s="40"/>
       <c r="V33" s="40"/>
-      <c r="W33" s="5"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>28</v>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="117"/>
+      <c r="B34" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="102" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
+      <c r="D34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="37">
+      <c r="J34" s="8"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="37">
         <v>43206</v>
       </c>
-      <c r="O34" s="37">
+      <c r="Q34" s="37">
         <v>43343</v>
       </c>
-      <c r="P34" s="38">
+      <c r="R34" s="38">
         <v>43206</v>
       </c>
-      <c r="Q34" s="38">
+      <c r="S34" s="38">
         <v>43343</v>
       </c>
-      <c r="R34" s="40"/>
-      <c r="S34" s="42">
+      <c r="T34" s="40"/>
+      <c r="U34" s="42">
         <v>1</v>
       </c>
-      <c r="T34" s="40"/>
-      <c r="U34" s="43" t="s">
+      <c r="V34" s="40"/>
+      <c r="W34" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V34" s="40" t="s">
+      <c r="X34" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="W34" s="5"/>
+      <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>38</v>
+    <row r="35" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="117"/>
+      <c r="B35" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="7" t="s">
+      <c r="D35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="37">
+        <v>43252</v>
+      </c>
+      <c r="Q35" s="37">
+        <v>43373</v>
+      </c>
+      <c r="R35" s="38">
+        <v>43252</v>
+      </c>
+      <c r="S35" s="38">
+        <v>43373</v>
+      </c>
+      <c r="T35" s="40"/>
+      <c r="U35" s="42">
+        <v>0</v>
+      </c>
+      <c r="V35" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y35" s="5"/>
+    </row>
+    <row r="36" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="117"/>
+      <c r="B36" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="37">
-        <v>43252</v>
-      </c>
-      <c r="O35" s="37">
-        <v>43373</v>
-      </c>
-      <c r="P35" s="38">
-        <v>43252</v>
-      </c>
-      <c r="Q35" s="38">
-        <v>43373</v>
-      </c>
-      <c r="R35" s="40"/>
-      <c r="S35" s="42">
-        <v>0</v>
-      </c>
-      <c r="T35" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="W35" s="5"/>
-    </row>
-    <row r="36" spans="1:23" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="102" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
+      <c r="D36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L36" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="74">
+        <v>43241</v>
+      </c>
+      <c r="P36" s="27">
+        <v>43206</v>
+      </c>
+      <c r="Q36" s="27">
+        <v>43241</v>
+      </c>
+      <c r="R36" s="21">
+        <v>43206</v>
+      </c>
+      <c r="S36" s="21">
+        <v>43250</v>
+      </c>
+      <c r="T36" s="40"/>
+      <c r="U36" s="42">
+        <v>1</v>
+      </c>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="117"/>
+      <c r="B37" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J36" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="74">
-        <v>43241</v>
-      </c>
-      <c r="N36" s="27">
-        <v>43206</v>
-      </c>
-      <c r="O36" s="27">
-        <v>43241</v>
-      </c>
-      <c r="P36" s="21">
-        <v>43206</v>
-      </c>
-      <c r="Q36" s="21">
-        <v>43250</v>
-      </c>
-      <c r="R36" s="40"/>
-      <c r="S36" s="42">
-        <v>1</v>
-      </c>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="W36" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="7" t="s">
+      <c r="D37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="84"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="21">
+        <v>43221</v>
+      </c>
+      <c r="S37" s="21">
+        <v>43373</v>
+      </c>
+      <c r="T37" s="40"/>
+      <c r="U37" s="42">
+        <v>0</v>
+      </c>
+      <c r="V37" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y37" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="117"/>
+      <c r="B38" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="21">
-        <v>43221</v>
-      </c>
-      <c r="Q37" s="21">
-        <v>43373</v>
-      </c>
-      <c r="R37" s="40"/>
-      <c r="S37" s="42">
-        <v>0</v>
-      </c>
-      <c r="T37" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="W37" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="D38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="85"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="J38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J38" s="68">
+      <c r="K38" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L38" s="68">
         <v>43213</v>
       </c>
-      <c r="K38" s="68">
+      <c r="M38" s="68">
         <v>43238</v>
       </c>
-      <c r="L38" s="74">
+      <c r="N38" s="74">
         <v>43241</v>
       </c>
-      <c r="M38" s="74">
+      <c r="O38" s="74">
         <v>43273</v>
       </c>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27">
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27">
         <v>43273</v>
       </c>
-      <c r="P38" s="21">
+      <c r="R38" s="21">
         <v>43242</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="S38" s="21">
         <v>43273</v>
       </c>
-      <c r="R38" s="40"/>
-      <c r="S38" s="42">
+      <c r="T38" s="40"/>
+      <c r="U38" s="42">
         <v>1</v>
       </c>
-      <c r="T38" s="40"/>
-      <c r="U38" s="43" t="s">
+      <c r="V38" s="40"/>
+      <c r="W38" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V38" s="40" t="s">
+      <c r="X38" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W38" s="5" t="s">
+      <c r="Y38" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>21</v>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26" t="s">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24" t="s">
+      <c r="J39" s="8"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="T39" s="40"/>
       <c r="U39" s="40"/>
       <c r="V39" s="40"/>
-      <c r="W39" s="5"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="5"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>38</v>
+    <row r="40" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="117"/>
+      <c r="B40" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="7" t="s">
+      <c r="D40" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="45"/>
+      <c r="H40" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" s="70"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="21">
+        <v>43213</v>
+      </c>
+      <c r="S40" s="21">
+        <v>43281</v>
+      </c>
+      <c r="T40" s="40"/>
+      <c r="U40" s="42">
+        <v>0</v>
+      </c>
+      <c r="V40" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="117"/>
+      <c r="B41" s="93" t="s">
         <v>124</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="70"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="21">
-        <v>43213</v>
-      </c>
-      <c r="Q40" s="21">
-        <v>43281</v>
-      </c>
-      <c r="R40" s="40"/>
-      <c r="S40" s="42">
-        <v>0</v>
-      </c>
-      <c r="T40" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="W40" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="110" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7" t="s">
+      <c r="D41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="21">
+        <v>43206</v>
+      </c>
+      <c r="S41" s="21">
+        <v>43404</v>
+      </c>
+      <c r="T41" s="40"/>
+      <c r="U41" s="42">
+        <v>0</v>
+      </c>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="117"/>
+      <c r="B42" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="21">
-        <v>43206</v>
-      </c>
-      <c r="Q41" s="21">
-        <v>43404</v>
-      </c>
-      <c r="R41" s="40"/>
-      <c r="S41" s="42">
-        <v>0</v>
-      </c>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="7" t="s">
+      <c r="D42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" s="45"/>
+      <c r="H42" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L42" s="70"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="21">
+        <v>43206</v>
+      </c>
+      <c r="S42" s="21">
+        <v>43343</v>
+      </c>
+      <c r="T42" s="40"/>
+      <c r="U42" s="42">
+        <v>0</v>
+      </c>
+      <c r="V42" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="W42" s="40"/>
+      <c r="X42" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="117"/>
+      <c r="B43" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J42" s="70"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="21">
-        <v>43206</v>
-      </c>
-      <c r="Q42" s="21">
-        <v>43343</v>
-      </c>
-      <c r="R42" s="40"/>
-      <c r="S42" s="42">
-        <v>0</v>
-      </c>
-      <c r="T42" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H43" s="8" t="s">
+      <c r="D43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" s="45"/>
+      <c r="H43" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J43" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J43" s="70"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="21">
+      <c r="K43" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L43" s="70"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="21">
         <v>43206</v>
       </c>
-      <c r="Q43" s="21">
+      <c r="S43" s="21">
         <v>43327</v>
       </c>
-      <c r="R43" s="40"/>
-      <c r="S43" s="42">
+      <c r="T43" s="40"/>
+      <c r="U43" s="42">
         <v>0</v>
       </c>
-      <c r="T43" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="U43" s="40"/>
       <c r="V43" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W43" s="5" t="s">
+      <c r="Y43" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>38</v>
+    <row r="44" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="117"/>
+      <c r="B44" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" s="45"/>
-      <c r="F44" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G44" s="7" t="s">
+      <c r="D44" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="84"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="J44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="K44" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J44" s="70"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="74">
+      <c r="L44" s="70"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="74">
         <v>43465</v>
       </c>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="21">
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="21">
         <v>43206</v>
       </c>
-      <c r="Q44" s="21">
+      <c r="S44" s="21">
         <v>43465</v>
       </c>
-      <c r="R44" s="40"/>
-      <c r="S44" s="42">
+      <c r="T44" s="40"/>
+      <c r="U44" s="42">
         <v>0</v>
       </c>
-      <c r="T44" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="U44" s="40"/>
       <c r="V44" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W44" s="5"/>
+      <c r="Y44" s="5"/>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>21</v>
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24" t="s">
+      <c r="J45" s="8"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="T45" s="40"/>
       <c r="U45" s="40"/>
       <c r="V45" s="40"/>
-      <c r="W45" s="5"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="5"/>
     </row>
-    <row r="46" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="54"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="74"/>
       <c r="P46" s="52"/>
       <c r="Q46" s="52"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="50" t="s">
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
       <c r="V46" s="50"/>
-      <c r="W46" s="51"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="51"/>
     </row>
-    <row r="47" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="51"/>
+    <row r="47" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="C47" s="51"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G47" s="54"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="54"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="74"/>
       <c r="P47" s="52"/>
       <c r="Q47" s="52"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="50" t="s">
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="T47" s="50"/>
-      <c r="U47" s="50"/>
       <c r="V47" s="50"/>
-      <c r="W47" s="51"/>
+      <c r="W47" s="50"/>
+      <c r="X47" s="50"/>
+      <c r="Y47" s="51"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>21</v>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29" t="s">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22" t="s">
+      <c r="J48" s="8"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="T48" s="40"/>
       <c r="U48" s="40"/>
       <c r="V48" s="40"/>
-      <c r="W48" s="5"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="5"/>
     </row>
-    <row r="49" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>28</v>
+    <row r="49" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="117"/>
+      <c r="B49" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G49" s="7" t="s">
+      <c r="D49" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" s="47"/>
+      <c r="H49" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J49" s="68">
+      <c r="J49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L49" s="68">
         <v>43191</v>
       </c>
-      <c r="K49" s="68">
+      <c r="M49" s="68">
         <v>43251</v>
       </c>
-      <c r="L49" s="74">
+      <c r="N49" s="74">
         <v>43252</v>
       </c>
-      <c r="M49" s="74">
+      <c r="O49" s="74">
         <v>43279</v>
       </c>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27">
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27">
         <v>43279</v>
       </c>
-      <c r="P49" s="21">
+      <c r="R49" s="21">
         <v>43206</v>
       </c>
-      <c r="Q49" s="21">
+      <c r="S49" s="21">
         <v>43266</v>
       </c>
-      <c r="R49" s="40"/>
-      <c r="S49" s="42">
+      <c r="T49" s="40"/>
+      <c r="U49" s="42">
         <v>1</v>
       </c>
-      <c r="T49" s="40"/>
-      <c r="U49" s="44" t="s">
+      <c r="V49" s="40"/>
+      <c r="W49" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="V49" s="40" t="s">
+      <c r="X49" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W49" s="5" t="s">
+      <c r="Y49" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>38</v>
+    <row r="50" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="103" t="s">
-        <v>182</v>
-      </c>
-      <c r="E50" s="47"/>
-      <c r="F50" s="7" t="s">
+      <c r="D50" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="47"/>
+      <c r="H50" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="21">
+        <v>43252</v>
+      </c>
+      <c r="S50" s="21">
+        <v>43373</v>
+      </c>
+      <c r="T50" s="40"/>
+      <c r="U50" s="42">
+        <v>0</v>
+      </c>
+      <c r="V50" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="21">
-        <v>43252</v>
-      </c>
-      <c r="Q50" s="21">
-        <v>43373</v>
-      </c>
-      <c r="R50" s="40"/>
-      <c r="S50" s="42">
-        <v>0</v>
-      </c>
-      <c r="T50" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40" t="s">
+      <c r="W50" s="40"/>
+      <c r="X50" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W50" s="5" t="s">
-        <v>152</v>
+      <c r="Y50" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E51" s="36"/>
-      <c r="R51" s="20"/>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G51" s="36"/>
+      <c r="T51" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:A50" xr:uid="{814F25E6-8B9E-431B-94EB-DD0031F65D9E}"/>
+  <autoFilter ref="B2:B50" xr:uid="{814F25E6-8B9E-431B-94EB-DD0031F65D9E}"/>
   <mergeCells count="14">
-    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N36:O38 N49:O50 N4:O5 N31:O32 N22:O29 N19:O20 N7:O17 J4:K4 B4:C4 J37:M37 C37 J46:O47 B46:C47 J7:K7 B7:C7 J19:K19 J40:O44 B40:C44 J50:K50 B50:C50 J29:K29 B29:C29 J36:K36 B36:C36 J20 B19:C20 J31:K32 B31:C32 J12:M17 B12:C17 J22:K26 B22:C26">
+  <conditionalFormatting sqref="P36:Q38 P49:Q50 P4:Q5 P31:Q32 P22:Q29 P19:Q20 P7:Q17 L4:M4 C4:D4 L37:O37 D37 L46:Q47 C46:D47 L7:M7 C7:D7 L19:M19 L40:Q44 C40:D44 L50:M50 C50:D50 L29:M29 C29:D29 L36:M36 C36:D36 L20 C19:D20 L31:M32 C31:D32 L12:O17 C12:D17 L22:M26 C22:D26">
     <cfRule type="cellIs" dxfId="205" priority="269" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -6992,7 +7194,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5">
+  <conditionalFormatting sqref="C5:D5">
     <cfRule type="cellIs" dxfId="203" priority="267" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7000,7 +7202,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C7 C19 C22:C23 C31 C49:C50 C27:C29 C25">
+  <conditionalFormatting sqref="D4:D5 D7 D19 D22:D23 D31 D49:D50 D27:D29 D25">
     <cfRule type="cellIs" dxfId="201" priority="265" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7008,7 +7210,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C28 B49:C49 K49">
+  <conditionalFormatting sqref="C27:D28 C49:D49 M49">
     <cfRule type="cellIs" dxfId="199" priority="263" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7016,7 +7218,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
+  <conditionalFormatting sqref="N4">
     <cfRule type="cellIs" dxfId="197" priority="261" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7024,7 +7226,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
+  <conditionalFormatting sqref="N5">
     <cfRule type="cellIs" dxfId="195" priority="259" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7032,7 +7234,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L36 L29 L22:L23 L49:L50 L25">
+  <conditionalFormatting sqref="N36 N29 N22:N23 N49:N50 N25">
     <cfRule type="cellIs" dxfId="193" priority="257" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7040,7 +7242,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C8">
+  <conditionalFormatting sqref="C8:D8">
     <cfRule type="cellIs" dxfId="191" priority="255" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7048,7 +7250,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="D8">
     <cfRule type="cellIs" dxfId="189" priority="253" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7056,7 +7258,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9">
+  <conditionalFormatting sqref="C9:D9">
     <cfRule type="cellIs" dxfId="187" priority="251" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7064,7 +7266,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
+  <conditionalFormatting sqref="D9">
     <cfRule type="cellIs" dxfId="185" priority="249" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7072,7 +7274,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:C10">
+  <conditionalFormatting sqref="C10:D10">
     <cfRule type="cellIs" dxfId="183" priority="247" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7080,7 +7282,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="D10">
     <cfRule type="cellIs" dxfId="181" priority="245" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7088,7 +7290,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="M27">
     <cfRule type="cellIs" dxfId="179" priority="217" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7096,7 +7298,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="L8">
     <cfRule type="cellIs" dxfId="177" priority="243" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7104,7 +7306,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
+  <conditionalFormatting sqref="L9">
     <cfRule type="cellIs" dxfId="175" priority="241" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7112,7 +7314,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+  <conditionalFormatting sqref="L10">
     <cfRule type="cellIs" dxfId="173" priority="239" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7120,7 +7322,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
+  <conditionalFormatting sqref="L49">
     <cfRule type="cellIs" dxfId="171" priority="211" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7128,7 +7330,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:K5">
+  <conditionalFormatting sqref="L5:M5">
     <cfRule type="cellIs" dxfId="169" priority="237" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7136,7 +7338,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L10">
+  <conditionalFormatting sqref="N7:N10">
     <cfRule type="cellIs" dxfId="167" priority="231" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7144,7 +7346,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="L28">
     <cfRule type="cellIs" dxfId="165" priority="229" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7152,7 +7354,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="M28">
     <cfRule type="cellIs" dxfId="163" priority="221" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7160,23 +7362,23 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="cellIs" dxfId="161" priority="215" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="216" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="cellIs" dxfId="159" priority="199" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="200" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="161" priority="215" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="216" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="159" priority="199" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="200" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
     <cfRule type="cellIs" dxfId="157" priority="219" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7184,7 +7386,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
+  <conditionalFormatting sqref="N28">
     <cfRule type="cellIs" dxfId="155" priority="213" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7192,7 +7394,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31">
+  <conditionalFormatting sqref="N31">
     <cfRule type="cellIs" dxfId="153" priority="207" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7200,7 +7402,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="151" priority="203" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7208,7 +7410,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
+  <conditionalFormatting sqref="N19">
     <cfRule type="cellIs" dxfId="149" priority="191" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7216,7 +7418,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C14">
+  <conditionalFormatting sqref="C11:D14">
     <cfRule type="cellIs" dxfId="147" priority="185" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7224,7 +7426,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C14">
+  <conditionalFormatting sqref="D11:D14">
     <cfRule type="cellIs" dxfId="145" priority="183" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7232,7 +7434,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J14">
+  <conditionalFormatting sqref="L11:L14">
     <cfRule type="cellIs" dxfId="143" priority="181" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7240,7 +7442,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L14">
+  <conditionalFormatting sqref="N12:N14">
     <cfRule type="cellIs" dxfId="141" priority="179" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7248,7 +7450,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K14">
+  <conditionalFormatting sqref="M12:M14">
     <cfRule type="cellIs" dxfId="139" priority="177" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7256,7 +7458,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M23:N23">
+  <conditionalFormatting sqref="O23:P23">
     <cfRule type="cellIs" dxfId="137" priority="163" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7264,7 +7466,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19:N19">
+  <conditionalFormatting sqref="O19:P19">
     <cfRule type="cellIs" dxfId="135" priority="175" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7272,7 +7474,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M49:N50 M25:N25">
+  <conditionalFormatting sqref="O49:P50 O25:P25">
     <cfRule type="cellIs" dxfId="133" priority="173" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7280,7 +7482,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:N4">
+  <conditionalFormatting sqref="O4:P4">
     <cfRule type="cellIs" dxfId="131" priority="171" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7288,7 +7490,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:N5">
+  <conditionalFormatting sqref="O5:P5">
     <cfRule type="cellIs" dxfId="129" priority="169" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7296,7 +7498,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:N10">
+  <conditionalFormatting sqref="O7:P10">
     <cfRule type="cellIs" dxfId="127" priority="167" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7304,7 +7506,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26:N26">
+  <conditionalFormatting sqref="O26:P26">
     <cfRule type="cellIs" dxfId="125" priority="161" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7312,7 +7514,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M41:N43">
+  <conditionalFormatting sqref="O41:P43">
     <cfRule type="cellIs" dxfId="123" priority="157" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7320,7 +7522,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M28:N28">
+  <conditionalFormatting sqref="O28:P28">
     <cfRule type="cellIs" dxfId="121" priority="165" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7328,7 +7530,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M29:N29">
+  <conditionalFormatting sqref="O29:P29">
     <cfRule type="cellIs" dxfId="119" priority="151" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7336,7 +7538,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M36:N36">
+  <conditionalFormatting sqref="O36:P36">
     <cfRule type="cellIs" dxfId="117" priority="159" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7344,7 +7546,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:N22">
+  <conditionalFormatting sqref="O22:P22">
     <cfRule type="cellIs" dxfId="115" priority="153" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7352,7 +7554,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M31:N31">
+  <conditionalFormatting sqref="O31:P31">
     <cfRule type="cellIs" dxfId="113" priority="155" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7360,7 +7562,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:N14 N11">
+  <conditionalFormatting sqref="O12:P14 P11">
     <cfRule type="cellIs" dxfId="111" priority="149" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7368,7 +7570,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M27:N27">
+  <conditionalFormatting sqref="O27:P27">
     <cfRule type="cellIs" dxfId="109" priority="147" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7376,7 +7578,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="D20">
     <cfRule type="cellIs" dxfId="107" priority="137" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7384,7 +7586,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+  <conditionalFormatting sqref="N20">
     <cfRule type="cellIs" dxfId="105" priority="135" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7392,7 +7594,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:N20">
+  <conditionalFormatting sqref="O20:P20">
     <cfRule type="cellIs" dxfId="103" priority="133" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7400,7 +7602,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="M20">
     <cfRule type="cellIs" dxfId="101" priority="131" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7408,7 +7610,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="99" priority="115" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7416,7 +7618,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32">
+  <conditionalFormatting sqref="N32">
     <cfRule type="cellIs" dxfId="97" priority="111" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7424,7 +7626,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M32:N32">
+  <conditionalFormatting sqref="O32:P32">
     <cfRule type="cellIs" dxfId="95" priority="107" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7432,7 +7634,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:C37">
+  <conditionalFormatting sqref="C37:D37">
     <cfRule type="cellIs" dxfId="93" priority="105" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7440,7 +7642,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M38:N38">
+  <conditionalFormatting sqref="O38:P38">
     <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7448,7 +7650,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="D38">
     <cfRule type="cellIs" dxfId="89" priority="101" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7456,7 +7658,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C38">
+  <conditionalFormatting sqref="C38:D38">
     <cfRule type="cellIs" dxfId="87" priority="99" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7464,7 +7666,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
+  <conditionalFormatting sqref="M38">
     <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7472,7 +7674,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
+  <conditionalFormatting sqref="L38">
     <cfRule type="cellIs" dxfId="83" priority="97" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7480,7 +7682,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
+  <conditionalFormatting sqref="N38">
     <cfRule type="cellIs" dxfId="81" priority="93" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7488,7 +7690,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="D24">
     <cfRule type="cellIs" dxfId="79" priority="87" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7496,7 +7698,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
+  <conditionalFormatting sqref="N24">
     <cfRule type="cellIs" dxfId="77" priority="83" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7504,7 +7706,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:N24">
+  <conditionalFormatting sqref="O24:P24">
     <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7512,7 +7714,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
+  <conditionalFormatting sqref="P20">
     <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7520,7 +7722,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
+  <conditionalFormatting sqref="P23">
     <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7528,7 +7730,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P36:Q38 P49:Q50 P4:Q5 P7:Q17 P31:Q32 P46:Q47 P19:Q20 P22:Q29 P40:Q44">
+  <conditionalFormatting sqref="R36:S38 R49:S50 R4:S5 R7:S17 R31:S32 R46:S47 R19:S20 R22:S29 R40:S44">
     <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7536,7 +7738,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
+  <conditionalFormatting sqref="R23">
     <cfRule type="cellIs" dxfId="67" priority="55" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7544,7 +7746,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
+  <conditionalFormatting sqref="R19">
     <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7552,7 +7754,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P49:P50 P25">
+  <conditionalFormatting sqref="R49:R50 R25">
     <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7560,7 +7762,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
+  <conditionalFormatting sqref="R4">
     <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7568,7 +7770,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
+  <conditionalFormatting sqref="R5">
     <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7576,7 +7778,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P10">
+  <conditionalFormatting sqref="R7:R10">
     <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7584,7 +7786,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26">
+  <conditionalFormatting sqref="R26">
     <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7592,7 +7794,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P41:P43">
+  <conditionalFormatting sqref="R41:R43">
     <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7600,7 +7802,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P28">
+  <conditionalFormatting sqref="R28">
     <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7608,7 +7810,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P29">
+  <conditionalFormatting sqref="R29">
     <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7616,7 +7818,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P36">
+  <conditionalFormatting sqref="R36">
     <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7624,7 +7826,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
+  <conditionalFormatting sqref="R22">
     <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7632,7 +7834,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31">
+  <conditionalFormatting sqref="R31">
     <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7640,7 +7842,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P14">
+  <conditionalFormatting sqref="R11:R14">
     <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7648,7 +7850,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P27">
+  <conditionalFormatting sqref="R27">
     <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7656,7 +7858,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P20">
+  <conditionalFormatting sqref="R20">
     <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7664,7 +7866,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P32">
+  <conditionalFormatting sqref="R32">
     <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7672,7 +7874,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P38">
+  <conditionalFormatting sqref="R38">
     <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7680,7 +7882,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24">
+  <conditionalFormatting sqref="R24">
     <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7688,7 +7890,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P20">
+  <conditionalFormatting sqref="R20">
     <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7696,7 +7898,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
+  <conditionalFormatting sqref="R23">
     <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7704,7 +7906,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19">
+  <conditionalFormatting sqref="Q19">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7712,7 +7914,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
+  <conditionalFormatting sqref="C35">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7720,7 +7922,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7728,39 +7930,39 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7768,7 +7970,7 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
+  <conditionalFormatting sqref="N11">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7776,31 +7978,31 @@
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -7862,15 +8064,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC44E3379A97FA4E944593A1B4884033" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d55a77746a42f0d196e305ea6d2be395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da3a7599-9aab-47c5-95b1-f06712a008da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15e420127186a9031838d8f31e607bf1" ns2:_="">
     <xsd:import namespace="da3a7599-9aab-47c5-95b1-f06712a008da"/>
@@ -8022,15 +8215,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1705559E-8D27-4D1A-AF88-BAB0505A1096}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="da3a7599-9aab-47c5-95b1-f06712a008da"/>
@@ -8039,14 +8241,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D1EA25F-6707-4D31-A94B-B4EBFCFEC58F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49AB4F7A-289D-4C89-BCAD-3A887D471511}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8062,4 +8256,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D1EA25F-6707-4D31-A94B-B4EBFCFEC58F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>